--- a/PAGES/AUTHENTICATION TABLE.xlsx
+++ b/PAGES/AUTHENTICATION TABLE.xlsx
@@ -10,6 +10,8 @@
     <sheet name="AET-100 (2)" sheetId="6" r:id="rId1"/>
     <sheet name="AET-Example" sheetId="4" r:id="rId2"/>
     <sheet name="TAT-101" sheetId="5" r:id="rId3"/>
+    <sheet name="Original" sheetId="7" r:id="rId4"/>
+    <sheet name="Table scrambled 1" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'AET-100 (2)'!$A$1:$AL$39</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="245">
   <si>
     <t>A</t>
   </si>
@@ -1295,11 +1297,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1307,25 +1306,25 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1343,13 +1342,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,42 +1409,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2029,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CB40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS39" sqref="AS39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2097,44 +2099,44 @@
   <sheetData>
     <row r="1" spans="1:80" ht="46.5">
       <c r="A1" s="29"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
       <c r="AL1" s="30"/>
     </row>
     <row r="2" spans="1:80" ht="26.25">
@@ -2165,18 +2167,18 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="33"/>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
       <c r="AL2" s="34"/>
     </row>
     <row r="3" spans="1:80" ht="23.25">
@@ -2317,91 +2319,91 @@
         <v>0</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>1</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>2</v>
       </c>
       <c r="M5" s="35"/>
       <c r="N5" s="35" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S5" s="35"/>
       <c r="T5" s="35" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="U5" s="35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V5" s="35" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Y5" s="35" t="s">
         <v>10</v>
       </c>
       <c r="Z5" s="35" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AA5" s="35"/>
       <c r="AB5" s="35" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AC5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="35" t="s">
         <v>14</v>
-      </c>
-      <c r="AD5" s="35" t="s">
-        <v>9</v>
       </c>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AG5" s="35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AH5" s="35"/>
       <c r="AI5" s="35" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AJ5" s="35" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AK5" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL5" s="39"/>
       <c r="AR5" s="74"/>
@@ -2448,91 +2450,91 @@
         <v>1</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J6" s="35"/>
       <c r="K6" s="35" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M6" s="35"/>
       <c r="N6" s="35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O6" s="35" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S6" s="35"/>
       <c r="T6" s="35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U6" s="35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="V6" s="35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="W6" s="35"/>
       <c r="X6" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y6" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z6" s="35" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AC6" s="35" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD6" s="35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE6" s="35"/>
       <c r="AF6" s="35" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AG6" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AH6" s="35"/>
       <c r="AI6" s="35" t="s">
         <v>24</v>
       </c>
       <c r="AJ6" s="35" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="AK6" s="35" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="39"/>
       <c r="AR6" s="74"/>
@@ -2579,91 +2581,91 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>14</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M7" s="35"/>
       <c r="N7" s="35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="S7" s="35"/>
       <c r="T7" s="35" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U7" s="35" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V7" s="35" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="W7" s="35"/>
       <c r="X7" s="35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="35" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="AD7" s="35" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG7" s="35" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AH7" s="35"/>
       <c r="AI7" s="35" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AJ7" s="35" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AK7" s="35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL7" s="39"/>
       <c r="AR7" s="74"/>
@@ -2710,91 +2712,91 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M8" s="35"/>
       <c r="N8" s="35" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="35" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U8" s="35" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="V8" s="35" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W8" s="35"/>
       <c r="X8" s="35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AC8" s="35" t="s">
-        <v>20</v>
-      </c>
       <c r="AD8" s="35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE8" s="35"/>
       <c r="AF8" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG8" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH8" s="35"/>
       <c r="AI8" s="35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AJ8" s="35" t="s">
         <v>15</v>
       </c>
       <c r="AK8" s="35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AL8" s="39"/>
       <c r="AR8" s="74"/>
@@ -2841,91 +2843,91 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="35" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="O9" s="35" t="s">
         <v>14</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R9" s="35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U9" s="35" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="V9" s="35" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="W9" s="35"/>
       <c r="X9" s="35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="35" t="s">
         <v>21</v>
       </c>
       <c r="Z9" s="35" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AA9" s="35"/>
       <c r="AB9" s="35" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AC9" s="35" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AD9" s="35" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AE9" s="35"/>
       <c r="AF9" s="35" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="35" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="35"/>
       <c r="AI9" s="35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="35" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="35" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AL9" s="39"/>
       <c r="AR9" s="74"/>
@@ -2972,91 +2974,91 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M10" s="35"/>
       <c r="N10" s="35" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U10" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="V10" s="35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W10" s="35"/>
       <c r="X10" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="35" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Z10" s="35" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AC10" s="35" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="35"/>
       <c r="AF10" s="35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG10" s="35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="35"/>
       <c r="AI10" s="35" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AJ10" s="35" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="35" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AL10" s="39"/>
       <c r="AR10" s="74"/>
@@ -3100,99 +3102,99 @@
     <row r="11" spans="1:80" ht="23.25">
       <c r="A11" s="31"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="75">
+      <c r="C11" s="78">
         <v>5</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="75">
+      <c r="G11" s="78">
         <v>7</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="75">
+      <c r="K11" s="78">
         <v>2</v>
       </c>
-      <c r="L11" s="75"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="75">
+      <c r="N11" s="78">
         <v>3</v>
       </c>
-      <c r="O11" s="75"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="75">
+      <c r="Q11" s="78">
         <v>4</v>
       </c>
-      <c r="R11" s="75"/>
+      <c r="R11" s="78"/>
       <c r="S11" s="40"/>
-      <c r="T11" s="75">
+      <c r="T11" s="78">
         <v>1</v>
       </c>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="40"/>
-      <c r="X11" s="75">
+      <c r="X11" s="78">
         <v>6</v>
       </c>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
       <c r="AA11" s="40"/>
-      <c r="AB11" s="75">
+      <c r="AB11" s="78">
         <v>0</v>
       </c>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
       <c r="AE11" s="40"/>
-      <c r="AF11" s="75">
+      <c r="AF11" s="78">
         <v>8</v>
       </c>
-      <c r="AG11" s="75"/>
+      <c r="AG11" s="78"/>
       <c r="AH11" s="40"/>
-      <c r="AI11" s="75">
+      <c r="AI11" s="78">
         <v>9</v>
       </c>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
       <c r="AL11" s="41"/>
-      <c r="AR11" s="79"/>
-      <c r="AS11" s="79"/>
-      <c r="AT11" s="79"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="75"/>
       <c r="AW11" s="74"/>
-      <c r="AX11" s="79"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="79"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="75"/>
       <c r="BA11" s="74"/>
-      <c r="BB11" s="79"/>
-      <c r="BC11" s="79"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
       <c r="BD11" s="74"/>
-      <c r="BE11" s="79"/>
-      <c r="BF11" s="79"/>
+      <c r="BE11" s="75"/>
+      <c r="BF11" s="75"/>
       <c r="BG11" s="74"/>
-      <c r="BH11" s="79"/>
-      <c r="BI11" s="79"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="75"/>
       <c r="BJ11" s="74"/>
-      <c r="BK11" s="79"/>
-      <c r="BL11" s="79"/>
-      <c r="BM11" s="79"/>
+      <c r="BK11" s="75"/>
+      <c r="BL11" s="75"/>
+      <c r="BM11" s="75"/>
       <c r="BN11" s="74"/>
-      <c r="BO11" s="79"/>
-      <c r="BP11" s="79"/>
-      <c r="BQ11" s="79"/>
+      <c r="BO11" s="75"/>
+      <c r="BP11" s="75"/>
+      <c r="BQ11" s="75"/>
       <c r="BR11" s="74"/>
-      <c r="BS11" s="79"/>
-      <c r="BT11" s="79"/>
-      <c r="BU11" s="79"/>
+      <c r="BS11" s="75"/>
+      <c r="BT11" s="75"/>
+      <c r="BU11" s="75"/>
       <c r="BV11" s="74"/>
-      <c r="BW11" s="79"/>
-      <c r="BX11" s="79"/>
+      <c r="BW11" s="75"/>
+      <c r="BX11" s="75"/>
       <c r="BY11" s="74"/>
-      <c r="BZ11" s="79"/>
-      <c r="CA11" s="79"/>
-      <c r="CB11" s="79"/>
+      <c r="BZ11" s="75"/>
+      <c r="CA11" s="75"/>
+      <c r="CB11" s="75"/>
     </row>
     <row r="12" spans="1:80" ht="23.25">
       <c r="A12" s="31"/>
@@ -3200,91 +3202,91 @@
         <v>6</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P12" s="35"/>
       <c r="Q12" s="35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W12" s="35"/>
       <c r="X12" s="35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="35" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z12" s="35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA12" s="35"/>
       <c r="AB12" s="35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC12" s="35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AD12" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE12" s="35"/>
       <c r="AF12" s="35" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AG12" s="35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH12" s="35"/>
       <c r="AI12" s="35" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AJ12" s="35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK12" s="35" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AL12" s="39"/>
       <c r="AR12" s="74"/>
@@ -3331,88 +3333,88 @@
         <v>7</v>
       </c>
       <c r="C13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>22</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="35" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="V13" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W13" s="35"/>
       <c r="X13" s="35" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Y13" s="35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="35"/>
       <c r="AB13" s="35" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="35" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="35" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="35"/>
       <c r="AF13" s="35" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="35"/>
       <c r="AI13" s="35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AJ13" s="35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AK13" s="35" t="s">
         <v>8</v>
@@ -3462,91 +3464,91 @@
         <v>8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>12</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>17</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="35" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M14" s="35"/>
       <c r="N14" s="35" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="U14" s="35" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="35" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W14" s="35"/>
       <c r="X14" s="35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y14" s="35" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="35" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="35" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="35"/>
       <c r="AF14" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AG14" s="35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH14" s="35"/>
       <c r="AI14" s="35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AJ14" s="35" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AK14" s="35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL14" s="39"/>
       <c r="AR14" s="74"/>
@@ -3593,91 +3595,91 @@
         <v>9</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15" s="35"/>
       <c r="N15" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="35" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA15" s="35"/>
       <c r="AB15" s="35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC15" s="35" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="35" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE15" s="35"/>
       <c r="AF15" s="35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG15" s="35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH15" s="35"/>
       <c r="AI15" s="35" t="s">
         <v>9</v>
       </c>
       <c r="AJ15" s="35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AK15" s="35" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AL15" s="39"/>
       <c r="AR15" s="74"/>
@@ -3724,91 +3726,91 @@
         <v>10</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M16" s="35"/>
       <c r="N16" s="35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="35" t="s">
         <v>2</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>4</v>
       </c>
       <c r="W16" s="35"/>
       <c r="X16" s="35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="35" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA16" s="35"/>
       <c r="AB16" s="35" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC16" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE16" s="35"/>
       <c r="AF16" s="35" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AG16" s="35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH16" s="35"/>
       <c r="AI16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="AJ16" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK16" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="AL16" s="39"/>
       <c r="AR16" s="74"/>
@@ -3855,7 +3857,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>17</v>
@@ -3868,78 +3870,78 @@
         <v>19</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M17" s="35"/>
       <c r="N17" s="35" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="U17" s="35" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="V17" s="35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W17" s="35"/>
       <c r="X17" s="35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y17" s="35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z17" s="35" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA17" s="35"/>
       <c r="AB17" s="35" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AC17" s="35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD17" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AE17" s="35"/>
       <c r="AF17" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="35" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH17" s="35"/>
       <c r="AI17" s="35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ17" s="35" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AK17" s="35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL17" s="39"/>
       <c r="AR17" s="74"/>
@@ -3983,99 +3985,99 @@
     <row r="18" spans="1:80" ht="23.25">
       <c r="A18" s="31"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="75">
+      <c r="C18" s="78">
         <v>5</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="75">
+      <c r="G18" s="78">
         <v>7</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="75">
+      <c r="K18" s="78">
         <v>2</v>
       </c>
-      <c r="L18" s="75"/>
+      <c r="L18" s="78"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="75">
+      <c r="N18" s="78">
         <v>3</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="78"/>
       <c r="P18" s="40"/>
-      <c r="Q18" s="75">
+      <c r="Q18" s="78">
         <v>4</v>
       </c>
-      <c r="R18" s="75"/>
+      <c r="R18" s="78"/>
       <c r="S18" s="40"/>
-      <c r="T18" s="75">
+      <c r="T18" s="78">
         <v>1</v>
       </c>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
       <c r="W18" s="40"/>
-      <c r="X18" s="75">
+      <c r="X18" s="78">
         <v>6</v>
       </c>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
       <c r="AA18" s="40"/>
-      <c r="AB18" s="75">
+      <c r="AB18" s="78">
         <v>0</v>
       </c>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
       <c r="AE18" s="40"/>
-      <c r="AF18" s="75">
+      <c r="AF18" s="78">
         <v>8</v>
       </c>
-      <c r="AG18" s="75"/>
+      <c r="AG18" s="78"/>
       <c r="AH18" s="40"/>
-      <c r="AI18" s="75">
+      <c r="AI18" s="78">
         <v>9</v>
       </c>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
       <c r="AL18" s="41"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="79"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="79"/>
-      <c r="AV18" s="79"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
       <c r="AW18" s="74"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="79"/>
-      <c r="AZ18" s="79"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
       <c r="BA18" s="74"/>
-      <c r="BB18" s="79"/>
-      <c r="BC18" s="79"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
       <c r="BD18" s="74"/>
-      <c r="BE18" s="79"/>
-      <c r="BF18" s="79"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
       <c r="BG18" s="74"/>
-      <c r="BH18" s="79"/>
-      <c r="BI18" s="79"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
       <c r="BJ18" s="74"/>
-      <c r="BK18" s="79"/>
-      <c r="BL18" s="79"/>
-      <c r="BM18" s="79"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="75"/>
       <c r="BN18" s="74"/>
-      <c r="BO18" s="79"/>
-      <c r="BP18" s="79"/>
-      <c r="BQ18" s="79"/>
+      <c r="BO18" s="75"/>
+      <c r="BP18" s="75"/>
+      <c r="BQ18" s="75"/>
       <c r="BR18" s="74"/>
-      <c r="BS18" s="79"/>
-      <c r="BT18" s="79"/>
-      <c r="BU18" s="79"/>
+      <c r="BS18" s="75"/>
+      <c r="BT18" s="75"/>
+      <c r="BU18" s="75"/>
       <c r="BV18" s="74"/>
-      <c r="BW18" s="79"/>
-      <c r="BX18" s="79"/>
+      <c r="BW18" s="75"/>
+      <c r="BX18" s="75"/>
       <c r="BY18" s="74"/>
-      <c r="BZ18" s="79"/>
-      <c r="CA18" s="79"/>
-      <c r="CB18" s="79"/>
+      <c r="BZ18" s="75"/>
+      <c r="CA18" s="75"/>
+      <c r="CB18" s="75"/>
     </row>
     <row r="19" spans="1:80" ht="23.25">
       <c r="A19" s="31"/>
@@ -4083,91 +4085,91 @@
         <v>12</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="35" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M19" s="35"/>
       <c r="N19" s="35" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P19" s="35"/>
       <c r="Q19" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S19" s="35"/>
       <c r="T19" s="35" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="U19" s="35" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V19" s="35" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="W19" s="35"/>
       <c r="X19" s="35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Y19" s="35" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z19" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA19" s="35"/>
       <c r="AB19" s="35" t="s">
         <v>10</v>
       </c>
       <c r="AC19" s="35" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AD19" s="35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE19" s="35"/>
       <c r="AF19" s="35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG19" s="35" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH19" s="35"/>
       <c r="AI19" s="35" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AJ19" s="35" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AK19" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL19" s="39"/>
       <c r="AR19" s="74"/>
@@ -4214,91 +4216,91 @@
         <v>13</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H20" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>1</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="35" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M20" s="35"/>
       <c r="N20" s="35" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="U20" s="35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="V20" s="35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W20" s="35"/>
       <c r="X20" s="35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Y20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="35" t="s">
         <v>10</v>
-      </c>
-      <c r="Z20" s="35" t="s">
-        <v>14</v>
       </c>
       <c r="AA20" s="35"/>
       <c r="AB20" s="35" t="s">
         <v>11</v>
       </c>
       <c r="AC20" s="35" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD20" s="35" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE20" s="35"/>
       <c r="AF20" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG20" s="35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH20" s="35"/>
       <c r="AI20" s="35" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AJ20" s="35" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AK20" s="35" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AL20" s="39"/>
       <c r="AR20" s="74"/>
@@ -4345,91 +4347,91 @@
         <v>14</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="35" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M21" s="35"/>
       <c r="N21" s="35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S21" s="35"/>
       <c r="T21" s="35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U21" s="35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V21" s="35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W21" s="35"/>
       <c r="X21" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="Z21" s="35" t="s">
-        <v>0</v>
       </c>
       <c r="AA21" s="35"/>
       <c r="AB21" s="35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AC21" s="35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD21" s="35" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AE21" s="35"/>
       <c r="AF21" s="35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AG21" s="35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH21" s="35"/>
       <c r="AI21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AJ21" s="35" t="s">
-        <v>9</v>
-      </c>
       <c r="AK21" s="35" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AL21" s="39"/>
       <c r="AR21" s="74"/>
@@ -4476,91 +4478,91 @@
         <v>15</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="35" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S22" s="35"/>
       <c r="T22" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="W22" s="35"/>
       <c r="X22" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Y22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z22" s="35" t="s">
         <v>15</v>
-      </c>
-      <c r="Z22" s="35" t="s">
-        <v>24</v>
       </c>
       <c r="AA22" s="35"/>
       <c r="AB22" s="35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC22" s="35" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD22" s="35" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AE22" s="35"/>
       <c r="AF22" s="35" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AG22" s="35" t="s">
         <v>20</v>
       </c>
       <c r="AH22" s="35"/>
       <c r="AI22" s="35" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ22" s="35" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AK22" s="35" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AL22" s="39"/>
       <c r="AR22" s="74"/>
@@ -4607,91 +4609,91 @@
         <v>16</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M23" s="35"/>
       <c r="N23" s="35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S23" s="35"/>
       <c r="T23" s="35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="U23" s="35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V23" s="35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="W23" s="35"/>
       <c r="X23" s="35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y23" s="35" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Z23" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA23" s="35"/>
       <c r="AB23" s="35" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC23" s="35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AD23" s="35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE23" s="35"/>
       <c r="AF23" s="35" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AG23" s="35" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AH23" s="35"/>
       <c r="AI23" s="35" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="35" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL23" s="39"/>
       <c r="AR23" s="74"/>
@@ -4738,91 +4740,91 @@
         <v>17</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P24" s="35"/>
       <c r="Q24" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="U24" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V24" s="35" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="W24" s="35"/>
       <c r="X24" s="35" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="35" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="35"/>
       <c r="AB24" s="35" t="s">
         <v>3</v>
       </c>
       <c r="AC24" s="35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD24" s="35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE24" s="35"/>
       <c r="AF24" s="35" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AG24" s="35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH24" s="35"/>
       <c r="AI24" s="35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AJ24" s="35" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AK24" s="35" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL24" s="39"/>
       <c r="AR24" s="74"/>
@@ -4866,99 +4868,99 @@
     <row r="25" spans="1:80" ht="23.25">
       <c r="A25" s="31"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="75">
+      <c r="C25" s="78">
         <v>5</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="75">
+      <c r="G25" s="78">
         <v>7</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="75">
+      <c r="K25" s="78">
         <v>2</v>
       </c>
-      <c r="L25" s="75"/>
+      <c r="L25" s="78"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="75">
+      <c r="N25" s="78">
         <v>3</v>
       </c>
-      <c r="O25" s="75"/>
+      <c r="O25" s="78"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="75">
+      <c r="Q25" s="78">
         <v>4</v>
       </c>
-      <c r="R25" s="75"/>
+      <c r="R25" s="78"/>
       <c r="S25" s="40"/>
-      <c r="T25" s="75">
+      <c r="T25" s="78">
         <v>1</v>
       </c>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
       <c r="W25" s="40"/>
-      <c r="X25" s="75">
+      <c r="X25" s="78">
         <v>6</v>
       </c>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
       <c r="AA25" s="40"/>
-      <c r="AB25" s="75">
+      <c r="AB25" s="78">
         <v>0</v>
       </c>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
       <c r="AE25" s="40"/>
-      <c r="AF25" s="75">
+      <c r="AF25" s="78">
         <v>8</v>
       </c>
-      <c r="AG25" s="75"/>
+      <c r="AG25" s="78"/>
       <c r="AH25" s="40"/>
-      <c r="AI25" s="75">
+      <c r="AI25" s="78">
         <v>9</v>
       </c>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
       <c r="AL25" s="41"/>
-      <c r="AR25" s="79"/>
-      <c r="AS25" s="79"/>
-      <c r="AT25" s="79"/>
-      <c r="AU25" s="79"/>
-      <c r="AV25" s="79"/>
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="75"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="75"/>
       <c r="AW25" s="74"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="79"/>
-      <c r="AZ25" s="79"/>
+      <c r="AX25" s="75"/>
+      <c r="AY25" s="75"/>
+      <c r="AZ25" s="75"/>
       <c r="BA25" s="74"/>
-      <c r="BB25" s="79"/>
-      <c r="BC25" s="79"/>
+      <c r="BB25" s="75"/>
+      <c r="BC25" s="75"/>
       <c r="BD25" s="74"/>
-      <c r="BE25" s="79"/>
-      <c r="BF25" s="79"/>
+      <c r="BE25" s="75"/>
+      <c r="BF25" s="75"/>
       <c r="BG25" s="74"/>
-      <c r="BH25" s="79"/>
-      <c r="BI25" s="79"/>
+      <c r="BH25" s="75"/>
+      <c r="BI25" s="75"/>
       <c r="BJ25" s="74"/>
-      <c r="BK25" s="79"/>
-      <c r="BL25" s="79"/>
-      <c r="BM25" s="79"/>
+      <c r="BK25" s="75"/>
+      <c r="BL25" s="75"/>
+      <c r="BM25" s="75"/>
       <c r="BN25" s="74"/>
-      <c r="BO25" s="79"/>
-      <c r="BP25" s="79"/>
-      <c r="BQ25" s="79"/>
+      <c r="BO25" s="75"/>
+      <c r="BP25" s="75"/>
+      <c r="BQ25" s="75"/>
       <c r="BR25" s="74"/>
-      <c r="BS25" s="79"/>
-      <c r="BT25" s="79"/>
-      <c r="BU25" s="79"/>
+      <c r="BS25" s="75"/>
+      <c r="BT25" s="75"/>
+      <c r="BU25" s="75"/>
       <c r="BV25" s="74"/>
-      <c r="BW25" s="79"/>
-      <c r="BX25" s="79"/>
+      <c r="BW25" s="75"/>
+      <c r="BX25" s="75"/>
       <c r="BY25" s="74"/>
-      <c r="BZ25" s="79"/>
-      <c r="CA25" s="79"/>
-      <c r="CB25" s="79"/>
+      <c r="BZ25" s="75"/>
+      <c r="CA25" s="75"/>
+      <c r="CB25" s="75"/>
     </row>
     <row r="26" spans="1:80" ht="23.25">
       <c r="A26" s="31"/>
@@ -4966,91 +4968,91 @@
         <v>18</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J26" s="35"/>
       <c r="K26" s="35" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="35" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="P26" s="35"/>
       <c r="Q26" s="35" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U26" s="35" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="V26" s="35" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="W26" s="35"/>
       <c r="X26" s="35" t="s">
         <v>4</v>
       </c>
       <c r="Y26" s="35" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z26" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA26" s="35"/>
       <c r="AB26" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC26" s="35" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD26" s="35" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AE26" s="35"/>
       <c r="AF26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG26" s="35" t="s">
         <v>11</v>
-      </c>
-      <c r="AG26" s="35" t="s">
-        <v>22</v>
       </c>
       <c r="AH26" s="35"/>
       <c r="AI26" s="35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AJ26" s="35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AK26" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL26" s="39"/>
       <c r="AR26" s="74"/>
@@ -5097,91 +5099,91 @@
         <v>19</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J27" s="35"/>
       <c r="K27" s="35" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P27" s="35"/>
       <c r="Q27" s="35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="U27" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V27" s="35" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="W27" s="35"/>
       <c r="X27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="35" t="s">
-        <v>21</v>
-      </c>
       <c r="Z27" s="35" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AA27" s="35"/>
       <c r="AB27" s="35" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AC27" s="35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD27" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE27" s="35"/>
       <c r="AF27" s="35" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AG27" s="35" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AH27" s="35"/>
       <c r="AI27" s="35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ27" s="35" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AK27" s="35" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AL27" s="39"/>
       <c r="AR27" s="74"/>
@@ -5228,91 +5230,91 @@
         <v>20</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>6</v>
-      </c>
       <c r="I28" s="35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U28" s="35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="V28" s="35" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="W28" s="35"/>
       <c r="X28" s="35" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Y28" s="35" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Z28" s="35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA28" s="35"/>
       <c r="AB28" s="35" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="35" t="s">
         <v>2</v>
       </c>
       <c r="AE28" s="35"/>
       <c r="AF28" s="35" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG28" s="35" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AH28" s="35"/>
       <c r="AI28" s="35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ28" s="35" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AK28" s="35" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AL28" s="39"/>
       <c r="AR28" s="74"/>
@@ -5359,91 +5361,91 @@
         <v>21</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="35" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="35" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P29" s="35"/>
       <c r="Q29" s="35" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R29" s="35" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S29" s="35"/>
       <c r="T29" s="35" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="U29" s="35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="V29" s="35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="W29" s="35"/>
       <c r="X29" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y29" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z29" s="35" t="s">
         <v>19</v>
-      </c>
-      <c r="Y29" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="35" t="s">
-        <v>17</v>
       </c>
       <c r="AA29" s="35"/>
       <c r="AB29" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC29" s="35" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AD29" s="35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE29" s="35"/>
       <c r="AF29" s="35" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AG29" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" s="35"/>
       <c r="AI29" s="35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AJ29" s="35" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="39"/>
       <c r="AR29" s="74"/>
@@ -5490,88 +5492,88 @@
         <v>22</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J30" s="35"/>
       <c r="K30" s="35" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="35" t="s">
         <v>9</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S30" s="35"/>
       <c r="T30" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="U30" s="35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="V30" s="35" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="W30" s="35"/>
       <c r="X30" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Y30" s="35" t="s">
-        <v>17</v>
-      </c>
       <c r="Z30" s="35" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AA30" s="35"/>
       <c r="AB30" s="35" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AC30" s="35" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AD30" s="35" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AE30" s="35"/>
       <c r="AF30" s="35" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AG30" s="35" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AH30" s="35"/>
       <c r="AI30" s="35" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ30" s="35" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AK30" s="35" t="s">
         <v>24</v>
@@ -5621,91 +5623,91 @@
         <v>23</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J31" s="35"/>
       <c r="K31" s="35" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M31" s="35"/>
       <c r="N31" s="35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P31" s="35"/>
       <c r="Q31" s="35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R31" s="35" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S31" s="35"/>
       <c r="T31" s="35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U31" s="35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V31" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W31" s="35"/>
       <c r="X31" s="35" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y31" s="35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z31" s="35" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AA31" s="35"/>
       <c r="AB31" s="35" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AC31" s="35" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AD31" s="35" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="35"/>
       <c r="AF31" s="35" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AH31" s="35"/>
       <c r="AI31" s="35" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AJ31" s="35" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="AK31" s="35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="39"/>
       <c r="AR31" s="74"/>
@@ -5752,91 +5754,91 @@
         <v>24</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I32" s="35" t="s">
         <v>9</v>
       </c>
       <c r="J32" s="35"/>
       <c r="K32" s="35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S32" s="35"/>
       <c r="T32" s="35" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="U32" s="35" t="s">
         <v>17</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W32" s="35"/>
       <c r="X32" s="35" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Y32" s="35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z32" s="35" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AA32" s="35"/>
       <c r="AB32" s="35" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AC32" s="35" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AD32" s="35" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AE32" s="35"/>
       <c r="AF32" s="35" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AG32" s="35" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="35"/>
       <c r="AI32" s="35" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AL32" s="39"/>
       <c r="AR32" s="74"/>
@@ -5879,144 +5881,198 @@
     </row>
     <row r="33" spans="1:38" ht="13.5" customHeight="1">
       <c r="A33" s="31"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+      <c r="B33" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>23</v>
+      </c>
       <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="G33" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>0</v>
+      </c>
       <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+      <c r="K33" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>2</v>
+      </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="N33" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="35" t="s">
+        <v>4</v>
+      </c>
       <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
+      <c r="Q33" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="35" t="s">
+        <v>6</v>
+      </c>
       <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
+      <c r="T33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="35" t="s">
+        <v>9</v>
+      </c>
       <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
+      <c r="X33" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z33" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
+      <c r="AB33" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC33" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD33" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
+      <c r="AF33" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG33" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="AH33" s="35"/>
-      <c r="AI33" s="35"/>
-      <c r="AJ33" s="35"/>
-      <c r="AK33" s="35"/>
+      <c r="AI33" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK33" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="AL33" s="39"/>
     </row>
     <row r="34" spans="1:38" ht="23.25">
       <c r="A34" s="31"/>
       <c r="B34" s="42"/>
-      <c r="C34" s="75">
+      <c r="C34" s="78">
         <v>0</v>
       </c>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="75">
+      <c r="G34" s="78">
         <v>1</v>
       </c>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="75">
+      <c r="K34" s="78">
         <v>2</v>
       </c>
-      <c r="L34" s="75"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="40"/>
-      <c r="N34" s="75">
+      <c r="N34" s="78">
         <v>3</v>
       </c>
-      <c r="O34" s="75"/>
+      <c r="O34" s="78"/>
       <c r="P34" s="40"/>
-      <c r="Q34" s="75">
+      <c r="Q34" s="78">
         <v>4</v>
       </c>
-      <c r="R34" s="75"/>
+      <c r="R34" s="78"/>
       <c r="S34" s="40"/>
-      <c r="T34" s="75">
+      <c r="T34" s="78">
         <v>5</v>
       </c>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
       <c r="W34" s="40"/>
-      <c r="X34" s="75">
+      <c r="X34" s="78">
         <v>6</v>
       </c>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
       <c r="AA34" s="40"/>
-      <c r="AB34" s="75">
+      <c r="AB34" s="78">
         <v>7</v>
       </c>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="78"/>
       <c r="AE34" s="40"/>
-      <c r="AF34" s="75">
+      <c r="AF34" s="78">
         <v>8</v>
       </c>
-      <c r="AG34" s="75"/>
+      <c r="AG34" s="78"/>
       <c r="AH34" s="40"/>
-      <c r="AI34" s="75">
+      <c r="AI34" s="78">
         <v>9</v>
       </c>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
+      <c r="AJ34" s="78"/>
+      <c r="AK34" s="78"/>
       <c r="AL34" s="41"/>
     </row>
     <row r="35" spans="1:38" ht="26.25">
       <c r="A35" s="31"/>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="76"/>
-      <c r="AD35" s="76"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="76"/>
-      <c r="AI35" s="76"/>
-      <c r="AJ35" s="76"/>
-      <c r="AK35" s="76"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
       <c r="AL35" s="43"/>
     </row>
     <row r="36" spans="1:38">
@@ -6221,17 +6277,55 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="BZ25:CB25"/>
-    <mergeCell ref="BH25:BI25"/>
-    <mergeCell ref="BK25:BM25"/>
-    <mergeCell ref="BO25:BQ25"/>
-    <mergeCell ref="BS25:BU25"/>
-    <mergeCell ref="BW25:BX25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AV25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="BE25:BF25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="B35:AK35"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AB2:AK2"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AV11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BB11:BC11"/>
+    <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BZ11:CB11"/>
     <mergeCell ref="AR18:AS18"/>
     <mergeCell ref="AT18:AV18"/>
@@ -6248,55 +6342,17 @@
     <mergeCell ref="BK11:BM11"/>
     <mergeCell ref="BO11:BQ11"/>
     <mergeCell ref="BS11:BU11"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AV11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BB11:BC11"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AB2:AK2"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="B35:AK35"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AV25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="BE25:BF25"/>
+    <mergeCell ref="BZ25:CB25"/>
+    <mergeCell ref="BH25:BI25"/>
+    <mergeCell ref="BK25:BM25"/>
+    <mergeCell ref="BO25:BQ25"/>
+    <mergeCell ref="BS25:BU25"/>
+    <mergeCell ref="BW25:BX25"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6337,44 +6393,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="88"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="87"/>
     </row>
     <row r="2" spans="1:38" ht="15.75">
       <c r="A2" s="4" t="s">
@@ -6405,18 +6461,18 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="89" t="s">
+      <c r="AA2" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="90"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="89"/>
     </row>
     <row r="3" spans="1:38" ht="15.75">
       <c r="A3" s="8"/>
@@ -7157,7 +7213,7 @@
         <v>9</v>
       </c>
       <c r="AI11" s="80"/>
-      <c r="AJ11" s="85"/>
+      <c r="AJ11" s="81"/>
     </row>
     <row r="12" spans="1:38" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="20" t="s">
@@ -7768,7 +7824,7 @@
         <v>9</v>
       </c>
       <c r="AI18" s="80"/>
-      <c r="AJ18" s="85"/>
+      <c r="AJ18" s="81"/>
     </row>
     <row r="19" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A19" s="10" t="s">
@@ -8378,7 +8434,7 @@
         <v>9</v>
       </c>
       <c r="AI25" s="80"/>
-      <c r="AJ25" s="85"/>
+      <c r="AJ25" s="81"/>
     </row>
     <row r="26" spans="1:37" ht="9.9499999999999993" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -9080,163 +9136,163 @@
         <v>9</v>
       </c>
       <c r="AI33" s="80"/>
-      <c r="AJ33" s="85"/>
+      <c r="AJ33" s="81"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="92"/>
-      <c r="AF34" s="92"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="93"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="83"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="83"/>
+      <c r="AF34" s="83"/>
+      <c r="AG34" s="83"/>
+      <c r="AH34" s="83"/>
+      <c r="AI34" s="83"/>
+      <c r="AJ34" s="84"/>
     </row>
     <row r="35" spans="1:36" ht="15" customHeight="1">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="83"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="83"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="83"/>
-      <c r="AI35" s="83"/>
-      <c r="AJ35" s="83"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="92"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="84"/>
-      <c r="AG36" s="84"/>
-      <c r="AH36" s="84"/>
-      <c r="AI36" s="84"/>
-      <c r="AJ36" s="84"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
+      <c r="AH36" s="93"/>
+      <c r="AI36" s="93"/>
+      <c r="AJ36" s="93"/>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="84"/>
-      <c r="AE37" s="84"/>
-      <c r="AF37" s="84"/>
-      <c r="AG37" s="84"/>
-      <c r="AH37" s="84"/>
-      <c r="AI37" s="84"/>
-      <c r="AJ37" s="84"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
+      <c r="AH37" s="93"/>
+      <c r="AI37" s="93"/>
+      <c r="AJ37" s="93"/>
     </row>
     <row r="38" spans="1:36">
       <c r="O38" s="7"/>
@@ -9248,40 +9304,40 @@
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="1:36">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" t="s">
@@ -9295,20 +9351,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="A34:AJ34"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A35:AJ37"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="W25:Y25"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="M18:N18"/>
@@ -9325,22 +9383,20 @@
     <mergeCell ref="AA11:AC11"/>
     <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A35:AJ37"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="A34:AJ34"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="AA25:AC25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AL6" r:id="rId1"/>
@@ -9355,8 +9411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9386,26 +9442,26 @@
   <sheetData>
     <row r="1" spans="1:21" ht="35.25">
       <c r="A1" s="29"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
       <c r="T1" s="68"/>
       <c r="U1" s="69"/>
     </row>
@@ -9425,47 +9481,47 @@
       <c r="M2" s="38"/>
       <c r="N2" s="72"/>
       <c r="O2" s="38"/>
-      <c r="P2" s="107" t="s">
+      <c r="P2" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
       <c r="T2" s="38"/>
       <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="18.75">
       <c r="A3" s="31"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111" t="s">
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111" t="s">
+      <c r="L3" s="97"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="111" t="s">
+      <c r="O3" s="97"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="109"/>
-      <c r="S3" s="112"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="100"/>
       <c r="T3" s="38"/>
       <c r="U3" s="44"/>
     </row>
@@ -9541,36 +9597,36 @@
     </row>
     <row r="6" spans="1:21" ht="19.5" thickBot="1">
       <c r="A6" s="31"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="94" t="s">
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="94" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="94" t="s">
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="94" t="s">
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="94" t="s">
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="95"/>
-      <c r="S6" s="97"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="109"/>
       <c r="T6" s="38"/>
       <c r="U6" s="44"/>
     </row>
@@ -11346,26 +11402,26 @@
     </row>
     <row r="37" spans="1:21" ht="18.75">
       <c r="A37" s="31"/>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
       <c r="T37" s="38"/>
       <c r="U37" s="44"/>
     </row>
@@ -11394,26 +11450,26 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="31"/>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="98"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
       <c r="T39" s="38"/>
       <c r="U39" s="44"/>
     </row>
@@ -11580,14 +11636,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="B39:S39"/>
+    <mergeCell ref="B37:S37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -11600,17 +11656,4398 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="B39:S39"/>
-    <mergeCell ref="B37:S37"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z38:Z39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" t="s">
+        <v>11</v>
+      </c>
+      <c r="W17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" t="s">
+        <v>13</v>
+      </c>
+      <c r="X18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" t="s">
+        <v>15</v>
+      </c>
+      <c r="X20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" t="s">
+        <v>14</v>
+      </c>
+      <c r="V21" t="s">
+        <v>15</v>
+      </c>
+      <c r="W21" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" t="s">
+        <v>15</v>
+      </c>
+      <c r="V22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" t="s">
+        <v>18</v>
+      </c>
+      <c r="X23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AJ31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:AJ31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="27" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:36" ht="23.25">
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="23.25">
+      <c r="A3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="23.25">
+      <c r="A4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="23.25">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="23.25">
+      <c r="A6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="23.25">
+      <c r="A7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="23.25">
+      <c r="A8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="23.25">
+      <c r="A9" s="40"/>
+    </row>
+    <row r="10" spans="1:36" ht="23.25">
+      <c r="A10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="23.25">
+      <c r="A11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="23.25">
+      <c r="A12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="23.25">
+      <c r="A13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="23.25">
+      <c r="A14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="23.25">
+      <c r="A15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="23.25">
+      <c r="A16" s="36"/>
+    </row>
+    <row r="17" spans="1:36" ht="23.25">
+      <c r="A17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="23.25">
+      <c r="A18" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="23.25">
+      <c r="A19" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" t="s">
+        <v>11</v>
+      </c>
+      <c r="X19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="23.25">
+      <c r="A20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" t="s">
+        <v>13</v>
+      </c>
+      <c r="X20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="23.25">
+      <c r="A21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="23.25">
+      <c r="A22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="23.25">
+      <c r="A23" s="36"/>
+    </row>
+    <row r="24" spans="1:36" ht="23.25">
+      <c r="A24" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="23.25">
+      <c r="A25" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="23.25">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" ht="23.25">
+      <c r="A27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="23.25">
+      <c r="A28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" t="s">
+        <v>12</v>
+      </c>
+      <c r="U28" t="s">
+        <v>13</v>
+      </c>
+      <c r="W28" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="23.25">
+      <c r="A29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" t="s">
+        <v>21</v>
+      </c>
+      <c r="X29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="23.25">
+      <c r="A30" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" t="s">
+        <v>17</v>
+      </c>
+      <c r="U30" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30" t="s">
+        <v>19</v>
+      </c>
+      <c r="X30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" ht="23.25">
+      <c r="A31" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" t="s">
+        <v>10</v>
+      </c>
+      <c r="X31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>